--- a/课程表.xlsx
+++ b/课程表.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoyanhui/Study/NodeJs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB47C0D-7FBE-6F4A-9350-1C253FAE7B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD06D68-5A31-1144-A183-CE482D1AD585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="820" windowWidth="28240" windowHeight="17440" xr2:uid="{11F08EF3-61EB-A243-8BE1-A9AF4AB65E96}"/>
+    <workbookView xWindow="1000" yWindow="760" windowWidth="28240" windowHeight="17440" xr2:uid="{11F08EF3-61EB-A243-8BE1-A9AF4AB65E96}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="node" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -306,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,13 +320,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -333,6 +328,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -649,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43232074-8E28-C843-8519-6558A7A561CC}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -678,42 +676,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="31">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="23">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -740,146 +738,149 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="23">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="23">
+      <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="23">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="23"/>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="23">
       <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="23">
+      <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="23"/>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="23">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="23"/>
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="23"/>
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="23">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="23">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" ht="23"/>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="23">
       <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="5" customFormat="1" ht="23"/>
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="23"/>
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="23">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="23">
-      <c r="A13" s="3" t="s">
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="23">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="8" customFormat="1"/>
+    <row r="17" s="6" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:M2"/>
@@ -890,4 +891,17 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F3E0DE-57E8-444C-9ACD-27B63FB82591}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>